--- a/Stimul_1.xlsx
+++ b/Stimul_1.xlsx
@@ -326,306 +326,6 @@
     <t>Blue 50</t>
   </si>
   <si>
-    <t>К21</t>
-  </si>
-  <si>
-    <t>К22</t>
-  </si>
-  <si>
-    <t>К23</t>
-  </si>
-  <si>
-    <t>К24</t>
-  </si>
-  <si>
-    <t>К25</t>
-  </si>
-  <si>
-    <t>К26</t>
-  </si>
-  <si>
-    <t>К27</t>
-  </si>
-  <si>
-    <t>К28</t>
-  </si>
-  <si>
-    <t>К29</t>
-  </si>
-  <si>
-    <t>К30</t>
-  </si>
-  <si>
-    <t>К31</t>
-  </si>
-  <si>
-    <t>К32</t>
-  </si>
-  <si>
-    <t>К33</t>
-  </si>
-  <si>
-    <t>К34</t>
-  </si>
-  <si>
-    <t>К35</t>
-  </si>
-  <si>
-    <t>К36</t>
-  </si>
-  <si>
-    <t>К37</t>
-  </si>
-  <si>
-    <t>К38</t>
-  </si>
-  <si>
-    <t>К39</t>
-  </si>
-  <si>
-    <t>К40</t>
-  </si>
-  <si>
-    <t>К41</t>
-  </si>
-  <si>
-    <t>К42</t>
-  </si>
-  <si>
-    <t>К43</t>
-  </si>
-  <si>
-    <t>К44</t>
-  </si>
-  <si>
-    <t>К45</t>
-  </si>
-  <si>
-    <t>К46</t>
-  </si>
-  <si>
-    <t>К47</t>
-  </si>
-  <si>
-    <t>К48</t>
-  </si>
-  <si>
-    <t>К49</t>
-  </si>
-  <si>
-    <t>К50</t>
-  </si>
-  <si>
-    <t>К52</t>
-  </si>
-  <si>
-    <t>К53</t>
-  </si>
-  <si>
-    <t>К54</t>
-  </si>
-  <si>
-    <t>К55</t>
-  </si>
-  <si>
-    <t>К56</t>
-  </si>
-  <si>
-    <t>К57</t>
-  </si>
-  <si>
-    <t>К58</t>
-  </si>
-  <si>
-    <t>К59</t>
-  </si>
-  <si>
-    <t>К60</t>
-  </si>
-  <si>
-    <t>К61</t>
-  </si>
-  <si>
-    <t>К62</t>
-  </si>
-  <si>
-    <t>К63</t>
-  </si>
-  <si>
-    <t>К64</t>
-  </si>
-  <si>
-    <t>К65</t>
-  </si>
-  <si>
-    <t>К66</t>
-  </si>
-  <si>
-    <t>К67</t>
-  </si>
-  <si>
-    <t>К68</t>
-  </si>
-  <si>
-    <t>К69</t>
-  </si>
-  <si>
-    <t>К70</t>
-  </si>
-  <si>
-    <t>К80</t>
-  </si>
-  <si>
-    <t>К71</t>
-  </si>
-  <si>
-    <t>К72</t>
-  </si>
-  <si>
-    <t>К73</t>
-  </si>
-  <si>
-    <t>К74</t>
-  </si>
-  <si>
-    <t>К75</t>
-  </si>
-  <si>
-    <t>К76</t>
-  </si>
-  <si>
-    <t>К77</t>
-  </si>
-  <si>
-    <t>К78</t>
-  </si>
-  <si>
-    <t>К79</t>
-  </si>
-  <si>
-    <t>К81</t>
-  </si>
-  <si>
-    <t>К82</t>
-  </si>
-  <si>
-    <t>К83</t>
-  </si>
-  <si>
-    <t>К84</t>
-  </si>
-  <si>
-    <t>К85</t>
-  </si>
-  <si>
-    <t>К86</t>
-  </si>
-  <si>
-    <t>К87</t>
-  </si>
-  <si>
-    <t>К88</t>
-  </si>
-  <si>
-    <t>К89</t>
-  </si>
-  <si>
-    <t>К90</t>
-  </si>
-  <si>
-    <t>К91</t>
-  </si>
-  <si>
-    <t>К92</t>
-  </si>
-  <si>
-    <t>К93</t>
-  </si>
-  <si>
-    <t>К94</t>
-  </si>
-  <si>
-    <t>К95</t>
-  </si>
-  <si>
-    <t>К96</t>
-  </si>
-  <si>
-    <t>К97</t>
-  </si>
-  <si>
-    <t>К98</t>
-  </si>
-  <si>
-    <t>К99</t>
-  </si>
-  <si>
-    <t>К100</t>
-  </si>
-  <si>
-    <t>К101</t>
-  </si>
-  <si>
-    <t>К1</t>
-  </si>
-  <si>
-    <t>К2</t>
-  </si>
-  <si>
-    <t>К3</t>
-  </si>
-  <si>
-    <t>К4</t>
-  </si>
-  <si>
-    <t>К5</t>
-  </si>
-  <si>
-    <t>К6</t>
-  </si>
-  <si>
-    <t>К7</t>
-  </si>
-  <si>
-    <t>К8</t>
-  </si>
-  <si>
-    <t>К9</t>
-  </si>
-  <si>
-    <t>К10</t>
-  </si>
-  <si>
-    <t>К11</t>
-  </si>
-  <si>
-    <t>К12</t>
-  </si>
-  <si>
-    <t>К13</t>
-  </si>
-  <si>
-    <t>К14</t>
-  </si>
-  <si>
-    <t>К15</t>
-  </si>
-  <si>
-    <t>К16</t>
-  </si>
-  <si>
-    <t>К17</t>
-  </si>
-  <si>
-    <t>К18</t>
-  </si>
-  <si>
-    <t>К19</t>
-  </si>
-  <si>
-    <t>К20</t>
-  </si>
-  <si>
     <t>Stimul</t>
   </si>
   <si>
@@ -639,6 +339,306 @@
   </si>
   <si>
     <t>Blue</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A1.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A10.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A100.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A101.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A11.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A12.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A13.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A14.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A15.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A16.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A17.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A18.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A19.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A2.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A20.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A21.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A22.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A23.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A24.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A25.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A26.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A27.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A28.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A29.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A3.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A30.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A31.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A32.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A33.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A34.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A35.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A36.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A37.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A38.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A39.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A4.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A40.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A41.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A42.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A43.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A44.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A45.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A46.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A47.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A48.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A49.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A5.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A50.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A52.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A53.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A54.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A55.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A56.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A57.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A58.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A59.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A6.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A60.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A61.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A62.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A63.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A64.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A65.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A66.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A67.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A68.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A69.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A7.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A70.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A71.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A72.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A73.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A74.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A75.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A76.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A77.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A78.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A79.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A8.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A80.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A81.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A82.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A83.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A84.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A85.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A86.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A87.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A88.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A89.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A9.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A90.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A91.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A92.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A93.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A94.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A95.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A96.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A97.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A98.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/%D0%9A99.jpg?raw=true</t>
   </si>
 </sst>
 </file>
@@ -972,20 +972,20 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,10 +1015,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,10 +1026,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1037,10 +1037,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1048,10 +1048,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1059,10 +1059,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,10 +1070,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1081,10 +1081,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1092,10 +1092,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,10 +1103,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1114,10 +1114,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1125,10 +1125,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1136,10 +1136,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,10 +1158,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,10 +1169,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1180,10 +1180,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1191,10 +1191,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1202,10 +1202,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,10 +1213,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1224,10 +1224,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,10 +1235,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1246,10 +1246,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,10 +1257,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1268,10 +1268,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,10 +1279,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,10 +1290,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1301,10 +1301,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,10 +1312,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1323,10 +1323,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,10 +1334,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,10 +1345,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,10 +1356,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1367,10 +1367,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,10 +1378,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,10 +1389,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1400,10 +1400,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,10 +1411,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,10 +1422,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,10 +1433,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1444,10 +1444,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,10 +1455,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,10 +1466,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1477,10 +1477,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1488,10 +1488,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,10 +1499,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,10 +1510,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,10 +1521,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,10 +1532,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1543,10 +1543,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,10 +1554,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,10 +1565,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,10 +1576,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1587,10 +1587,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,10 +1598,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,10 +1609,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,10 +1620,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,10 +1631,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,10 +1642,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,10 +1653,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,10 +1664,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,10 +1675,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,10 +1686,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,10 +1697,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,10 +1708,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,10 +1719,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,10 +1730,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,10 +1741,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,10 +1752,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,10 +1763,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,10 +1774,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,10 +1785,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1796,10 +1796,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1807,10 +1807,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1818,10 +1818,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1829,10 +1829,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="C78" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1840,10 +1840,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1851,10 +1851,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1862,10 +1862,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1873,10 +1873,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C82" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1884,10 +1884,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C83" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1895,10 +1895,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1906,10 +1906,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1917,10 +1917,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1928,10 +1928,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="C87" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1939,10 +1939,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C88" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1950,10 +1950,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1961,10 +1961,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1972,10 +1972,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1983,10 +1983,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1994,10 +1994,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,10 +2005,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2016,10 +2016,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2027,10 +2027,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="C96" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2038,10 +2038,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2049,10 +2049,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2060,10 +2060,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2071,10 +2071,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2082,10 +2082,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2103,92 +2103,91 @@
     <hyperlink ref="B12" r:id="rId11"/>
     <hyperlink ref="B13" r:id="rId12"/>
     <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B53" r:id="rId51"/>
-    <hyperlink ref="B54" r:id="rId52"/>
-    <hyperlink ref="B55" r:id="rId53"/>
-    <hyperlink ref="B56" r:id="rId54"/>
-    <hyperlink ref="B57" r:id="rId55"/>
-    <hyperlink ref="B58" r:id="rId56"/>
-    <hyperlink ref="B59" r:id="rId57"/>
-    <hyperlink ref="B60" r:id="rId58"/>
-    <hyperlink ref="B61" r:id="rId59"/>
-    <hyperlink ref="B62" r:id="rId60"/>
-    <hyperlink ref="B63" r:id="rId61"/>
-    <hyperlink ref="B64" r:id="rId62"/>
-    <hyperlink ref="B65" r:id="rId63"/>
-    <hyperlink ref="B66" r:id="rId64"/>
-    <hyperlink ref="B67" r:id="rId65"/>
-    <hyperlink ref="B68" r:id="rId66"/>
-    <hyperlink ref="B69" r:id="rId67"/>
-    <hyperlink ref="B70" r:id="rId68"/>
-    <hyperlink ref="B71" r:id="rId69"/>
-    <hyperlink ref="B72" r:id="rId70"/>
-    <hyperlink ref="B73" r:id="rId71"/>
-    <hyperlink ref="B74" r:id="rId72"/>
-    <hyperlink ref="B75" r:id="rId73"/>
-    <hyperlink ref="B76" r:id="rId74"/>
-    <hyperlink ref="B77" r:id="rId75"/>
-    <hyperlink ref="B78" r:id="rId76"/>
-    <hyperlink ref="B79" r:id="rId77"/>
-    <hyperlink ref="B80" r:id="rId78"/>
-    <hyperlink ref="B81" r:id="rId79"/>
-    <hyperlink ref="B82" r:id="rId80"/>
-    <hyperlink ref="B83" r:id="rId81"/>
-    <hyperlink ref="B84" r:id="rId82"/>
-    <hyperlink ref="B85" r:id="rId83"/>
-    <hyperlink ref="B86" r:id="rId84"/>
-    <hyperlink ref="B87" r:id="rId85"/>
-    <hyperlink ref="B88" r:id="rId86"/>
-    <hyperlink ref="B89" r:id="rId87"/>
-    <hyperlink ref="B90" r:id="rId88"/>
-    <hyperlink ref="B91" r:id="rId89"/>
-    <hyperlink ref="B92" r:id="rId90"/>
-    <hyperlink ref="B93" r:id="rId91"/>
-    <hyperlink ref="B94" r:id="rId92"/>
-    <hyperlink ref="B95" r:id="rId93"/>
-    <hyperlink ref="B96" r:id="rId94"/>
-    <hyperlink ref="B97" r:id="rId95"/>
-    <hyperlink ref="B98" r:id="rId96"/>
-    <hyperlink ref="B99" r:id="rId97"/>
-    <hyperlink ref="B100" r:id="rId98"/>
-    <hyperlink ref="B101" r:id="rId99"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B21" r:id="rId19"/>
+    <hyperlink ref="B22" r:id="rId20"/>
+    <hyperlink ref="B23" r:id="rId21"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="B26" r:id="rId24"/>
+    <hyperlink ref="B27" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B35" r:id="rId33"/>
+    <hyperlink ref="B36" r:id="rId34"/>
+    <hyperlink ref="B37" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="B42" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41"/>
+    <hyperlink ref="B44" r:id="rId42"/>
+    <hyperlink ref="B45" r:id="rId43"/>
+    <hyperlink ref="B46" r:id="rId44"/>
+    <hyperlink ref="B47" r:id="rId45"/>
+    <hyperlink ref="B48" r:id="rId46"/>
+    <hyperlink ref="B49" r:id="rId47"/>
+    <hyperlink ref="B50" r:id="rId48"/>
+    <hyperlink ref="B51" r:id="rId49"/>
+    <hyperlink ref="B53" r:id="rId50"/>
+    <hyperlink ref="B54" r:id="rId51"/>
+    <hyperlink ref="B55" r:id="rId52"/>
+    <hyperlink ref="B56" r:id="rId53"/>
+    <hyperlink ref="B57" r:id="rId54"/>
+    <hyperlink ref="B58" r:id="rId55"/>
+    <hyperlink ref="B59" r:id="rId56"/>
+    <hyperlink ref="B60" r:id="rId57"/>
+    <hyperlink ref="B61" r:id="rId58"/>
+    <hyperlink ref="B62" r:id="rId59"/>
+    <hyperlink ref="B63" r:id="rId60"/>
+    <hyperlink ref="B64" r:id="rId61"/>
+    <hyperlink ref="B65" r:id="rId62"/>
+    <hyperlink ref="B66" r:id="rId63"/>
+    <hyperlink ref="B67" r:id="rId64"/>
+    <hyperlink ref="B68" r:id="rId65"/>
+    <hyperlink ref="B69" r:id="rId66"/>
+    <hyperlink ref="B70" r:id="rId67"/>
+    <hyperlink ref="B71" r:id="rId68"/>
+    <hyperlink ref="B72" r:id="rId69"/>
+    <hyperlink ref="B73" r:id="rId70"/>
+    <hyperlink ref="B74" r:id="rId71"/>
+    <hyperlink ref="B75" r:id="rId72"/>
+    <hyperlink ref="B76" r:id="rId73"/>
+    <hyperlink ref="B77" r:id="rId74"/>
+    <hyperlink ref="B78" r:id="rId75"/>
+    <hyperlink ref="B79" r:id="rId76"/>
+    <hyperlink ref="B80" r:id="rId77"/>
+    <hyperlink ref="B81" r:id="rId78"/>
+    <hyperlink ref="B82" r:id="rId79"/>
+    <hyperlink ref="B83" r:id="rId80"/>
+    <hyperlink ref="B84" r:id="rId81"/>
+    <hyperlink ref="B85" r:id="rId82"/>
+    <hyperlink ref="B86" r:id="rId83"/>
+    <hyperlink ref="B87" r:id="rId84"/>
+    <hyperlink ref="B88" r:id="rId85"/>
+    <hyperlink ref="B89" r:id="rId86"/>
+    <hyperlink ref="B90" r:id="rId87"/>
+    <hyperlink ref="B91" r:id="rId88"/>
+    <hyperlink ref="B92" r:id="rId89"/>
+    <hyperlink ref="B93" r:id="rId90"/>
+    <hyperlink ref="B94" r:id="rId91"/>
+    <hyperlink ref="B95" r:id="rId92"/>
+    <hyperlink ref="B96" r:id="rId93"/>
+    <hyperlink ref="B97" r:id="rId94"/>
+    <hyperlink ref="B98" r:id="rId95"/>
+    <hyperlink ref="B99" r:id="rId96"/>
+    <hyperlink ref="B101" r:id="rId97"/>
+    <hyperlink ref="B52" r:id="rId98"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
